--- a/symfony/spreadsheets/example3.xlsx
+++ b/symfony/spreadsheets/example3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
     <t>Gemeente</t>
   </si>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>Sittard-Geleen</t>
-  </si>
-  <si>
-    <t>Coevorden</t>
   </si>
 </sst>
 </file>
@@ -393,10 +390,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A2" sqref="A2:J4"/>
+      <selection activeCell="A2" sqref="A2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -426,13 +423,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>4388.0</v>
+        <v>760.2</v>
       </c>
       <c r="C2" s="2">
-        <v>2542.8</v>
+        <v>434.4</v>
       </c>
       <c r="D2" s="2">
-        <v>259.2</v>
+        <v>36.2</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -442,36 +439,16 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1556.8</v>
-      </c>
-      <c r="C3" s="2">
-        <v>868.6</v>
-      </c>
-      <c r="D3" s="2">
-        <v>76.2</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/symfony/spreadsheets/example3.xlsx
+++ b/symfony/spreadsheets/example3.xlsx
@@ -423,13 +423,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>760.2</v>
+        <v>2370.6</v>
       </c>
       <c r="C2" s="2">
-        <v>434.4</v>
+        <v>1501.8</v>
       </c>
       <c r="D2" s="2">
-        <v>36.2</v>
+        <v>110.0</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
